--- a/src/main/webapp/resources/excel/product_dump.xlsx
+++ b/src/main/webapp/resources/excel/product_dump.xlsx
@@ -5,86 +5,146 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\yong\LN\spring_workspace\FashionShop\src\main\webapp\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\korea_workspace\FashionShop\src\main\webapp\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF529500-C4AE-4A6E-ABE2-FB6444C3C350}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B0C4D4-A4C3-4884-B113-9A7F7C8D251F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12765" yWindow="1965" windowWidth="21600" windowHeight="11385" xr2:uid="{378B6A5C-321D-4552-A80F-9752C63457CA}"/>
+    <workbookView xWindow="-25320" yWindow="450" windowWidth="25440" windowHeight="15990" xr2:uid="{FB639B6F-75FA-4BF9-97D0-732FBFF48800}"/>
   </bookViews>
   <sheets>
     <sheet name="product" sheetId="1" r:id="rId1"/>
+    <sheet name="color" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spring</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oracle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mysql</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>android</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>node.js</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>react</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>javascript &amp; jquery</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+  <si>
+    <t>subcategory_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오리털 가디건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭털 가디건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반팔티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>긴팔티셔츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오리털 점퍼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭털 점퍼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인기니트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최신니트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폴로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폴햄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지오지아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몽클레어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>톰보이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리트머스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샤넬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품 좋네요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시원해요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>따뜻해요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,120 +508,352 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5583E431-5170-4F65-BA44-D0D88E16E780}">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEACB5EA-3D96-4E64-BE91-8354D9E39758}">
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>50000</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>50001</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>50002</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>50003</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>50004</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>50005</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>50006</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
       <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>50007</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B552B2-67A4-4318-B583-960F3EEA3124}">
+  <dimension ref="A2:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/webapp/resources/excel/product_dump.xlsx
+++ b/src/main/webapp/resources/excel/product_dump.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\korea_workspace\FashionShop\src\main\webapp\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\yong\LN\spring_workspace\FashionShop\src\main\webapp\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B0C4D4-A4C3-4884-B113-9A7F7C8D251F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF3F86A-8ECC-4400-B8BF-712DA507F081}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="450" windowWidth="25440" windowHeight="15990" xr2:uid="{FB639B6F-75FA-4BF9-97D0-732FBFF48800}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FB639B6F-75FA-4BF9-97D0-732FBFF48800}"/>
   </bookViews>
   <sheets>
     <sheet name="product" sheetId="1" r:id="rId1"/>
@@ -26,23 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
-  <si>
-    <t>subcategory_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>product_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
   <si>
     <t>red</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,95 +40,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>subcategory_id</t>
+  </si>
+  <si>
+    <t>product_name</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>psize</t>
+  </si>
+  <si>
     <t>detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filename</t>
   </si>
   <si>
     <t>오리털 가디건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폴로</t>
+  </si>
+  <si>
+    <t>red,black</t>
+  </si>
+  <si>
+    <t>S,M,L</t>
+  </si>
+  <si>
+    <t>좋아요</t>
   </si>
   <si>
     <t>닭털 가디건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폴햄</t>
+  </si>
+  <si>
+    <t>제품 좋네요</t>
   </si>
   <si>
     <t>반팔티</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지오지아</t>
+  </si>
+  <si>
+    <t>시원해요</t>
   </si>
   <si>
     <t>긴팔티셔츠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몽클레어</t>
+  </si>
+  <si>
+    <t>따뜻해요</t>
   </si>
   <si>
     <t>오리털 점퍼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>톰보이</t>
+  </si>
+  <si>
+    <t>추천함</t>
   </si>
   <si>
     <t>닭털 점퍼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리트머스</t>
+  </si>
+  <si>
+    <t>ㅋㅋ</t>
   </si>
   <si>
     <t>인기니트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샤넬</t>
+  </si>
+  <si>
+    <t>기타</t>
   </si>
   <si>
     <t>최신니트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폴로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폴햄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지오지아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몽클레어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>톰보이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리트머스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>샤넬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋아요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품 좋네요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시원해요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>따뜻해요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추천함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅋㅋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타</t>
+  </si>
+  <si>
+    <t>png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -191,7 +183,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -509,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEACB5EA-3D96-4E64-BE91-8354D9E39758}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -522,163 +517,244 @@
     <col min="5" max="5" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1">
+        <v>50000</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1">
+        <v>50001</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1">
+        <v>50002</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1">
+        <v>50003</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>50000</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>50001</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>50002</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>50003</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C6" s="1">
+        <v>50004</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1">
+        <v>50005</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1">
+        <v>50006</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1">
+        <v>50007</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6">
-        <v>50004</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7">
-        <v>50005</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="F9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8">
-        <v>50006</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <v>50007</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
+      <c r="G9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -697,7 +773,7 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -705,7 +781,7 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -713,7 +789,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -721,7 +797,7 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -729,7 +805,7 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -737,7 +813,7 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -745,7 +821,7 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -753,7 +829,7 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -761,7 +837,7 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -769,7 +845,7 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -777,7 +853,7 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -785,7 +861,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -793,7 +869,7 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -801,7 +877,7 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -809,7 +885,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -817,7 +893,7 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -825,7 +901,7 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -833,7 +909,7 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -841,7 +917,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -849,7 +925,7 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
